--- a/Variable-driven QA tracker.xlsx
+++ b/Variable-driven QA tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warnerj5/Box Sync/CCC19 data/QA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warnerj5/HemOnc.org Dropbox/Jeremy Warner/CCC19 parent folder/CCC19 VUMC/Data dictionary/CCC19_dictionary_and_derived_variables/CCC19_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E9689-90BD-EF44-B821-5E18D3819647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894710B-83F9-DC47-B775-3A82DB749CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3960" windowWidth="27700" windowHeight="16940" xr2:uid="{64200ECB-87A9-9C4F-AC3E-79E5E3700A27}"/>
+    <workbookView xWindow="-36280" yWindow="4620" windowWidth="27700" windowHeight="16940" xr2:uid="{64200ECB-87A9-9C4F-AC3E-79E5E3700A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Routine QA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>Date of last QA</t>
   </si>
@@ -398,6 +398,24 @@
   </si>
   <si>
     <t>Breast cancer biomarkers</t>
+  </si>
+  <si>
+    <t>der_dementia</t>
+  </si>
+  <si>
+    <t>significant_comorbidities___52448006</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>der_ccc19cci</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Modified Charlson comorbidity index</t>
   </si>
 </sst>
 </file>
@@ -497,61 +515,6 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -625,6 +588,61 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -639,28 +657,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0931B02-D318-8543-A3C2-C3ADDE45F2A7}" name="Table1" displayName="Table1" ref="A1:D48" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:D48" xr:uid="{155B198E-C57E-AA4D-83A3-3FE35279D419}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0931B02-D318-8543-A3C2-C3ADDE45F2A7}" name="Table1" displayName="Table1" ref="A1:D51" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:D51" xr:uid="{155B198E-C57E-AA4D-83A3-3FE35279D419}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
     <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{52829798-03D5-BA44-9F55-459117C6B6B7}" name="Derived variable" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{793EFC78-F9DD-E840-A95C-5D5F86E25BBD}" name="Underlying variables" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A128A330-A652-C346-9DBB-3E2FE716F11F}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F9AEA796-E460-B441-B81D-7088F0E73203}" name="Date of last QA" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{52829798-03D5-BA44-9F55-459117C6B6B7}" name="Derived variable" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{793EFC78-F9DD-E840-A95C-5D5F86E25BBD}" name="Underlying variables" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A128A330-A652-C346-9DBB-3E2FE716F11F}" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F9AEA796-E460-B441-B81D-7088F0E73203}" name="Date of last QA" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2AE7A3A-4558-004D-BBD7-2582FC576945}" name="Table2" displayName="Table2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2AE7A3A-4558-004D-BBD7-2582FC576945}" name="Table2" displayName="Table2" ref="A1:C12" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C12" xr:uid="{9758E02A-1622-BC45-946D-56B9D737D970}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D8519A79-B4FF-1243-8234-C29CEE24FBF0}" name="Derived variable" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5D699A55-3A34-A140-85E0-F283662E7444}" name="Underlying variables" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{37914890-E5DD-B34D-B14C-2592BF07CAF7}" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D8519A79-B4FF-1243-8234-C29CEE24FBF0}" name="Derived variable" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5D699A55-3A34-A140-85E0-F283662E7444}" name="Underlying variables" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{37914890-E5DD-B34D-B14C-2592BF07CAF7}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1FBA1-E601-704F-9D4F-1A56D995A4EC}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1571,6 +1589,40 @@
       <c r="D48" s="11">
         <v>44231</v>
       </c>
+    </row>
+    <row r="49" spans="1:4" ht="17">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="11">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17">
+      <c r="A50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="11">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
